--- a/notebooks/Data/Star_Wars_Episode_I_The_Phantom_Menice/centrality.xlsx
+++ b/notebooks/Data/Star_Wars_Episode_I_The_Phantom_Menice/centrality.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="131">
   <si>
     <t>betweenness_centrality</t>
   </si>
@@ -28,9 +28,15 @@
     <t>eigenvector_centrality</t>
   </si>
   <si>
+    <t>in_degree</t>
+  </si>
+  <si>
     <t>name</t>
   </si>
   <si>
+    <t>out_degree</t>
+  </si>
+  <si>
     <t>Porro Dolphe</t>
   </si>
   <si>
@@ -256,151 +262,151 @@
     <t>Weazel</t>
   </si>
   <si>
+    <t>Mot-Not Rab</t>
+  </si>
+  <si>
+    <t>Ratts Tyerell</t>
+  </si>
+  <si>
+    <t>Swamptoe</t>
+  </si>
+  <si>
+    <t>Bok Askol</t>
+  </si>
+  <si>
+    <t>Greedo</t>
+  </si>
+  <si>
+    <t>Po Nudo</t>
+  </si>
+  <si>
+    <t>Sabé</t>
+  </si>
+  <si>
+    <t>Mars Guo</t>
+  </si>
+  <si>
+    <t>Rum Sleg</t>
+  </si>
+  <si>
+    <t>Yarua</t>
+  </si>
+  <si>
+    <t>Graf Zapalo</t>
+  </si>
+  <si>
+    <t>Ann Gella</t>
+  </si>
+  <si>
+    <t>Teers</t>
+  </si>
+  <si>
+    <t>Wald</t>
+  </si>
+  <si>
+    <t>Elan Mak</t>
+  </si>
+  <si>
+    <t>Shmi Skywalker Lars</t>
+  </si>
+  <si>
+    <t>Hogan Tinmar</t>
+  </si>
+  <si>
+    <t>K1D0</t>
+  </si>
+  <si>
+    <t>R2-R9</t>
+  </si>
+  <si>
+    <t>Bail Antilles</t>
+  </si>
+  <si>
+    <t>Aldar Beedo</t>
+  </si>
+  <si>
+    <t>Lott Dod</t>
+  </si>
+  <si>
+    <t>Tey How</t>
+  </si>
+  <si>
+    <t>1138 (Trade Federation)</t>
+  </si>
+  <si>
+    <t>Sei Taria</t>
+  </si>
+  <si>
+    <t>Adi Gallia</t>
+  </si>
+  <si>
+    <t>Saché</t>
+  </si>
+  <si>
+    <t>Clegg Holdfast</t>
+  </si>
+  <si>
+    <t>Depa Billaba</t>
+  </si>
+  <si>
+    <t>PK-4</t>
+  </si>
+  <si>
+    <t>Rune Haako</t>
+  </si>
+  <si>
+    <t>Ody Mandrell</t>
+  </si>
+  <si>
+    <t>Neva Kee</t>
+  </si>
+  <si>
+    <t>Finis Valorum</t>
+  </si>
+  <si>
+    <t>Antidar Williams</t>
+  </si>
+  <si>
+    <t>Ebe E. Endocott</t>
+  </si>
+  <si>
+    <t>Fodesinbeed Annodue</t>
+  </si>
+  <si>
+    <t>Yarael Poof</t>
+  </si>
+  <si>
+    <t>Perosei</t>
+  </si>
+  <si>
+    <t>Ianad Cisma</t>
+  </si>
+  <si>
+    <t>Ric Olié</t>
+  </si>
+  <si>
+    <t>Odin Nesloor</t>
+  </si>
+  <si>
+    <t>Yané</t>
+  </si>
+  <si>
     <t>Ebenn Q3 Baobab</t>
   </si>
   <si>
-    <t>Ratts Tyerell</t>
-  </si>
-  <si>
-    <t>Swamptoe</t>
-  </si>
-  <si>
-    <t>Bok Askol</t>
-  </si>
-  <si>
-    <t>Greedo</t>
-  </si>
-  <si>
-    <t>Po Nudo</t>
-  </si>
-  <si>
-    <t>Sabé</t>
-  </si>
-  <si>
-    <t>Mars Guo</t>
+    <t>Maz Kanata</t>
+  </si>
+  <si>
+    <t>Gardulla Besadii the Elder</t>
+  </si>
+  <si>
+    <t>Boles Roor</t>
+  </si>
+  <si>
+    <t>Darth Sidious</t>
   </si>
   <si>
     <t>R2-A6</t>
-  </si>
-  <si>
-    <t>Yarua</t>
-  </si>
-  <si>
-    <t>Graf Zapalo</t>
-  </si>
-  <si>
-    <t>Ann Gella</t>
-  </si>
-  <si>
-    <t>Teers</t>
-  </si>
-  <si>
-    <t>Wald</t>
-  </si>
-  <si>
-    <t>Elan Mak</t>
-  </si>
-  <si>
-    <t>Shmi Skywalker Lars</t>
-  </si>
-  <si>
-    <t>Hogan Tinmar</t>
-  </si>
-  <si>
-    <t>K1D0</t>
-  </si>
-  <si>
-    <t>R2-R9</t>
-  </si>
-  <si>
-    <t>Bail Antilles</t>
-  </si>
-  <si>
-    <t>Aldar Beedo</t>
-  </si>
-  <si>
-    <t>Lott Dod</t>
-  </si>
-  <si>
-    <t>Tey How</t>
-  </si>
-  <si>
-    <t>1138 (Trade Federation)</t>
-  </si>
-  <si>
-    <t>Sei Taria</t>
-  </si>
-  <si>
-    <t>Adi Gallia</t>
-  </si>
-  <si>
-    <t>Saché</t>
-  </si>
-  <si>
-    <t>Clegg Holdfast</t>
-  </si>
-  <si>
-    <t>Depa Billaba</t>
-  </si>
-  <si>
-    <t>PK-4</t>
-  </si>
-  <si>
-    <t>Rune Haako</t>
-  </si>
-  <si>
-    <t>Ody Mandrell</t>
-  </si>
-  <si>
-    <t>Neva Kee</t>
-  </si>
-  <si>
-    <t>Finis Valorum</t>
-  </si>
-  <si>
-    <t>Antidar Williams</t>
-  </si>
-  <si>
-    <t>Ebe E. Endocott</t>
-  </si>
-  <si>
-    <t>Fodesinbeed Annodue</t>
-  </si>
-  <si>
-    <t>Yarael Poof</t>
-  </si>
-  <si>
-    <t>Perosei</t>
-  </si>
-  <si>
-    <t>Ianad Cisma</t>
-  </si>
-  <si>
-    <t>Ric Olié</t>
-  </si>
-  <si>
-    <t>Odin Nesloor</t>
-  </si>
-  <si>
-    <t>Yané</t>
-  </si>
-  <si>
-    <t>Mot-Not Rab</t>
-  </si>
-  <si>
-    <t>Maz Kanata</t>
-  </si>
-  <si>
-    <t>Gardulla Besadii the Elder</t>
-  </si>
-  <si>
-    <t>Boles Roor</t>
-  </si>
-  <si>
-    <t>Darth Sidious</t>
-  </si>
-  <si>
-    <t>Rum Sleg</t>
   </si>
 </sst>
 </file>
@@ -758,13 +764,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F125"/>
+  <dimension ref="A1:H125"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -780,8 +786,14 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -797,11 +809,17 @@
       <c r="E2">
         <v>1.284276084573828e-13</v>
       </c>
-      <c r="F2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -815,13 +833,19 @@
         <v>0.04878048780487805</v>
       </c>
       <c r="E3">
-        <v>0.004318535650622628</v>
-      </c>
-      <c r="F3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>0.004318535650622627</v>
+      </c>
+      <c r="F3">
+        <v>3</v>
+      </c>
+      <c r="G3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -837,11 +861,17 @@
       <c r="E4">
         <v>1.3150987106036e-10</v>
       </c>
-      <c r="F4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -857,11 +887,17 @@
       <c r="E5">
         <v>1.284276084573828e-13</v>
       </c>
-      <c r="F5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -875,13 +911,19 @@
         <v>0.1219512195121951</v>
       </c>
       <c r="E6">
-        <v>0.002984730610197574</v>
-      </c>
-      <c r="F6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>0.002984730610197573</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H6">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -897,11 +939,17 @@
       <c r="E7">
         <v>1.3150987106036e-10</v>
       </c>
-      <c r="F7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -917,11 +965,17 @@
       <c r="E8">
         <v>0.02211358862968974</v>
       </c>
-      <c r="F8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+      <c r="F8">
+        <v>4</v>
+      </c>
+      <c r="G8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -937,11 +991,17 @@
       <c r="E9">
         <v>0.003188469320763724</v>
       </c>
-      <c r="F9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+      <c r="F9">
+        <v>2</v>
+      </c>
+      <c r="G9" t="s">
+        <v>14</v>
+      </c>
+      <c r="H9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -955,13 +1015,19 @@
         <v>0.1382113821138211</v>
       </c>
       <c r="E10">
-        <v>0.08066773161898984</v>
-      </c>
-      <c r="F10" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>0.08066773161898985</v>
+      </c>
+      <c r="F10">
+        <v>9</v>
+      </c>
+      <c r="G10" t="s">
+        <v>15</v>
+      </c>
+      <c r="H10">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -977,11 +1043,17 @@
       <c r="E11">
         <v>1.284276084573828e-13</v>
       </c>
-      <c r="F11" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11" t="s">
+        <v>16</v>
+      </c>
+      <c r="H11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -997,11 +1069,17 @@
       <c r="E12">
         <v>1.284276084573828e-13</v>
       </c>
-      <c r="F12" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12" t="s">
+        <v>17</v>
+      </c>
+      <c r="H12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1017,11 +1095,17 @@
       <c r="E13">
         <v>1.3150987106036e-10</v>
       </c>
-      <c r="F13" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13" t="s">
+        <v>18</v>
+      </c>
+      <c r="H13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1037,11 +1121,17 @@
       <c r="E14">
         <v>0.1195786265348147</v>
       </c>
-      <c r="F14" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+      <c r="F14">
+        <v>9</v>
+      </c>
+      <c r="G14" t="s">
+        <v>19</v>
+      </c>
+      <c r="H14">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1057,11 +1147,17 @@
       <c r="E15">
         <v>1.284276084573828e-13</v>
       </c>
-      <c r="F15" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15" t="s">
+        <v>20</v>
+      </c>
+      <c r="H15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1077,11 +1173,17 @@
       <c r="E16">
         <v>1.284276084573828e-13</v>
       </c>
-      <c r="F16" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16" t="s">
+        <v>21</v>
+      </c>
+      <c r="H16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1097,11 +1199,17 @@
       <c r="E17">
         <v>1.284276084573828e-13</v>
       </c>
-      <c r="F17" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17" t="s">
+        <v>22</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1115,13 +1223,19 @@
         <v>0.1707317073170732</v>
       </c>
       <c r="E18">
-        <v>0.10827424760359</v>
-      </c>
-      <c r="F18" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
+        <v>0.1082742476035901</v>
+      </c>
+      <c r="F18">
+        <v>8</v>
+      </c>
+      <c r="G18" t="s">
+        <v>23</v>
+      </c>
+      <c r="H18">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1137,11 +1251,17 @@
       <c r="E19">
         <v>0.1284607468336685</v>
       </c>
-      <c r="F19" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
+      <c r="F19">
+        <v>11</v>
+      </c>
+      <c r="G19" t="s">
+        <v>24</v>
+      </c>
+      <c r="H19">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1157,11 +1277,17 @@
       <c r="E20">
         <v>1.284276084573828e-13</v>
       </c>
-      <c r="F20" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20" t="s">
+        <v>25</v>
+      </c>
+      <c r="H20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1177,11 +1303,17 @@
       <c r="E21">
         <v>1.284276084573828e-13</v>
       </c>
-      <c r="F21" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21" t="s">
+        <v>26</v>
+      </c>
+      <c r="H21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1197,11 +1329,17 @@
       <c r="E22">
         <v>0.1670063789065584</v>
       </c>
-      <c r="F22" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
+      <c r="F22">
+        <v>23</v>
+      </c>
+      <c r="G22" t="s">
+        <v>27</v>
+      </c>
+      <c r="H22">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1215,13 +1353,19 @@
         <v>0.7967479674796749</v>
       </c>
       <c r="E23">
-        <v>0.3217690234418081</v>
-      </c>
-      <c r="F23" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
+        <v>0.3217690234418082</v>
+      </c>
+      <c r="F23">
+        <v>62</v>
+      </c>
+      <c r="G23" t="s">
+        <v>28</v>
+      </c>
+      <c r="H23">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1237,11 +1381,17 @@
       <c r="E24">
         <v>1.3150987106036e-10</v>
       </c>
-      <c r="F24" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24" t="s">
+        <v>29</v>
+      </c>
+      <c r="H24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1257,11 +1407,17 @@
       <c r="E25">
         <v>1.284276084573828e-13</v>
       </c>
-      <c r="F25" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25" t="s">
+        <v>30</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -1277,11 +1433,17 @@
       <c r="E26">
         <v>0.1760913215584075</v>
       </c>
-      <c r="F26" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
+      <c r="F26">
+        <v>22</v>
+      </c>
+      <c r="G26" t="s">
+        <v>31</v>
+      </c>
+      <c r="H26">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -1295,13 +1457,19 @@
         <v>0.2357723577235773</v>
       </c>
       <c r="E27">
-        <v>0.05754444355901207</v>
-      </c>
-      <c r="F27" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
+        <v>0.05754444355901206</v>
+      </c>
+      <c r="F27">
+        <v>18</v>
+      </c>
+      <c r="G27" t="s">
+        <v>32</v>
+      </c>
+      <c r="H27">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -1317,11 +1485,17 @@
       <c r="E28">
         <v>1.412703693031211e-12</v>
       </c>
-      <c r="F28" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28" t="s">
+        <v>33</v>
+      </c>
+      <c r="H28">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -1337,11 +1511,17 @@
       <c r="E29">
         <v>1.284276084573828e-13</v>
       </c>
-      <c r="F29" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29" t="s">
+        <v>34</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -1357,11 +1537,17 @@
       <c r="E30">
         <v>0.3115986714285779</v>
       </c>
-      <c r="F30" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
+      <c r="F30">
+        <v>47</v>
+      </c>
+      <c r="G30" t="s">
+        <v>35</v>
+      </c>
+      <c r="H30">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -1377,11 +1563,17 @@
       <c r="E31">
         <v>0.1146950030252833</v>
       </c>
-      <c r="F31" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
+      <c r="F31">
+        <v>12</v>
+      </c>
+      <c r="G31" t="s">
+        <v>36</v>
+      </c>
+      <c r="H31">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -1397,11 +1589,17 @@
       <c r="E32">
         <v>1.284276084573828e-13</v>
       </c>
-      <c r="F32" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
+      <c r="F32">
+        <v>0</v>
+      </c>
+      <c r="G32" t="s">
+        <v>37</v>
+      </c>
+      <c r="H32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -1417,11 +1615,17 @@
       <c r="E33">
         <v>0.1061057170525394</v>
       </c>
-      <c r="F33" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
+      <c r="F33">
+        <v>7</v>
+      </c>
+      <c r="G33" t="s">
+        <v>38</v>
+      </c>
+      <c r="H33">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -1437,11 +1641,17 @@
       <c r="E34">
         <v>1.284276084573828e-13</v>
       </c>
-      <c r="F34" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
+      <c r="F34">
+        <v>0</v>
+      </c>
+      <c r="G34" t="s">
+        <v>39</v>
+      </c>
+      <c r="H34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -1457,11 +1667,17 @@
       <c r="E35">
         <v>1.284276084573828e-13</v>
       </c>
-      <c r="F35" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6">
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35" t="s">
+        <v>40</v>
+      </c>
+      <c r="H35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -1475,13 +1691,19 @@
         <v>0.4796747967479675</v>
       </c>
       <c r="E36">
-        <v>0.2841119899212121</v>
-      </c>
-      <c r="F36" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
+        <v>0.2841119899212122</v>
+      </c>
+      <c r="F36">
+        <v>45</v>
+      </c>
+      <c r="G36" t="s">
+        <v>41</v>
+      </c>
+      <c r="H36">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -1497,11 +1719,17 @@
       <c r="E37">
         <v>0.00590977590001343</v>
       </c>
-      <c r="F37" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6">
+      <c r="F37">
+        <v>2</v>
+      </c>
+      <c r="G37" t="s">
+        <v>42</v>
+      </c>
+      <c r="H37">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -1517,11 +1745,17 @@
       <c r="E38">
         <v>0.2991891170809878</v>
       </c>
-      <c r="F38" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
+      <c r="F38">
+        <v>52</v>
+      </c>
+      <c r="G38" t="s">
+        <v>43</v>
+      </c>
+      <c r="H38">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -1535,13 +1769,19 @@
         <v>0.06504065040650407</v>
       </c>
       <c r="E39">
-        <v>0.03918421343610794</v>
-      </c>
-      <c r="F39" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
+        <v>0.03918421343610793</v>
+      </c>
+      <c r="F39">
+        <v>8</v>
+      </c>
+      <c r="G39" t="s">
+        <v>44</v>
+      </c>
+      <c r="H39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -1557,11 +1797,17 @@
       <c r="E40">
         <v>0.1344822930890663</v>
       </c>
-      <c r="F40" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
+      <c r="F40">
+        <v>12</v>
+      </c>
+      <c r="G40" t="s">
+        <v>45</v>
+      </c>
+      <c r="H40">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -1577,16 +1823,22 @@
       <c r="E41">
         <v>0.1882245898616212</v>
       </c>
-      <c r="F41" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
+      <c r="F41">
+        <v>28</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1">
         <v>40</v>
       </c>
       <c r="B42">
-        <v>0.004800646584853955</v>
+        <v>0.004800646584853954</v>
       </c>
       <c r="C42">
         <v>19</v>
@@ -1597,11 +1849,17 @@
       <c r="E42">
         <v>0.02940742433769091</v>
       </c>
-      <c r="F42" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
+      <c r="F42">
+        <v>6</v>
+      </c>
+      <c r="G42" t="s">
+        <v>47</v>
+      </c>
+      <c r="H42">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -1617,11 +1875,17 @@
       <c r="E43">
         <v>0.2064143159421835</v>
       </c>
-      <c r="F43" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
+      <c r="F43">
+        <v>19</v>
+      </c>
+      <c r="G43" t="s">
+        <v>48</v>
+      </c>
+      <c r="H43">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -1635,13 +1899,19 @@
         <v>0.0894308943089431</v>
       </c>
       <c r="E44">
-        <v>0.0004005461788657446</v>
-      </c>
-      <c r="F44" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
+        <v>0.0004005461788657445</v>
+      </c>
+      <c r="F44">
+        <v>3</v>
+      </c>
+      <c r="G44" t="s">
+        <v>49</v>
+      </c>
+      <c r="H44">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -1657,11 +1927,17 @@
       <c r="E45">
         <v>1.284276084573828e-13</v>
       </c>
-      <c r="F45" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6">
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45" t="s">
+        <v>50</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -1677,11 +1953,17 @@
       <c r="E46">
         <v>0.01284832084742205</v>
       </c>
-      <c r="F46" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
+      <c r="F46">
+        <v>1</v>
+      </c>
+      <c r="G46" t="s">
+        <v>51</v>
+      </c>
+      <c r="H46">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -1697,11 +1979,17 @@
       <c r="E47">
         <v>1.284276084573828e-13</v>
       </c>
-      <c r="F47" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
+      <c r="F47">
+        <v>0</v>
+      </c>
+      <c r="G47" t="s">
+        <v>52</v>
+      </c>
+      <c r="H47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -1717,16 +2005,22 @@
       <c r="E48">
         <v>1.284276084573828e-13</v>
       </c>
-      <c r="F48" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
+      <c r="F48">
+        <v>0</v>
+      </c>
+      <c r="G48" t="s">
+        <v>53</v>
+      </c>
+      <c r="H48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1">
         <v>47</v>
       </c>
       <c r="B49">
-        <v>0.00559176014584846</v>
+        <v>0.005591760145848459</v>
       </c>
       <c r="C49">
         <v>36</v>
@@ -1737,11 +2031,17 @@
       <c r="E49">
         <v>0.2318293243969274</v>
       </c>
-      <c r="F49" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6">
+      <c r="F49">
+        <v>25</v>
+      </c>
+      <c r="G49" t="s">
+        <v>54</v>
+      </c>
+      <c r="H49">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -1757,11 +2057,17 @@
       <c r="E50">
         <v>0.1186865331039728</v>
       </c>
-      <c r="F50" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
+      <c r="F50">
+        <v>12</v>
+      </c>
+      <c r="G50" t="s">
+        <v>55</v>
+      </c>
+      <c r="H50">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -1775,13 +2081,19 @@
         <v>0.0975609756097561</v>
       </c>
       <c r="E51">
-        <v>0.06673976267976568</v>
-      </c>
-      <c r="F51" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
+        <v>0.0667397626797657</v>
+      </c>
+      <c r="F51">
+        <v>5</v>
+      </c>
+      <c r="G51" t="s">
+        <v>56</v>
+      </c>
+      <c r="H51">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -1797,11 +2109,17 @@
       <c r="E52">
         <v>0.007242707715279925</v>
       </c>
-      <c r="F52" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6">
+      <c r="F52">
+        <v>2</v>
+      </c>
+      <c r="G52" t="s">
+        <v>57</v>
+      </c>
+      <c r="H52">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -1817,11 +2135,17 @@
       <c r="E53">
         <v>0.0625789841498704</v>
       </c>
-      <c r="F53" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
+      <c r="F53">
+        <v>5</v>
+      </c>
+      <c r="G53" t="s">
+        <v>58</v>
+      </c>
+      <c r="H53">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -1837,11 +2161,17 @@
       <c r="E54">
         <v>0.004077706348473077</v>
       </c>
-      <c r="F54" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6">
+      <c r="F54">
+        <v>5</v>
+      </c>
+      <c r="G54" t="s">
+        <v>59</v>
+      </c>
+      <c r="H54">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -1857,11 +2187,17 @@
       <c r="E55">
         <v>0.1064237267000904</v>
       </c>
-      <c r="F55" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6">
+      <c r="F55">
+        <v>9</v>
+      </c>
+      <c r="G55" t="s">
+        <v>60</v>
+      </c>
+      <c r="H55">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -1875,13 +2211,19 @@
         <v>0.07317073170731708</v>
       </c>
       <c r="E56">
-        <v>0.01368845259232841</v>
-      </c>
-      <c r="F56" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
+        <v>0.0136884525923284</v>
+      </c>
+      <c r="F56">
+        <v>3</v>
+      </c>
+      <c r="G56" t="s">
+        <v>61</v>
+      </c>
+      <c r="H56">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -1897,11 +2239,17 @@
       <c r="E57">
         <v>1.284276084573828e-13</v>
       </c>
-      <c r="F57" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6">
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57" t="s">
+        <v>62</v>
+      </c>
+      <c r="H57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -1917,11 +2265,17 @@
       <c r="E58">
         <v>0.2219472538850756</v>
       </c>
-      <c r="F58" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6">
+      <c r="F58">
+        <v>22</v>
+      </c>
+      <c r="G58" t="s">
+        <v>63</v>
+      </c>
+      <c r="H58">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -1937,11 +2291,17 @@
       <c r="E59">
         <v>1.3150987106036e-10</v>
       </c>
-      <c r="F59" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6">
+      <c r="F59">
+        <v>1</v>
+      </c>
+      <c r="G59" t="s">
+        <v>64</v>
+      </c>
+      <c r="H59">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -1957,11 +2317,17 @@
       <c r="E60">
         <v>0.08183631964690247</v>
       </c>
-      <c r="F60" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6">
+      <c r="F60">
+        <v>6</v>
+      </c>
+      <c r="G60" t="s">
+        <v>65</v>
+      </c>
+      <c r="H60">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -1975,13 +2341,19 @@
         <v>0.04878048780487805</v>
       </c>
       <c r="E61">
-        <v>0.000824331796206526</v>
-      </c>
-      <c r="F61" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6">
+        <v>0.0008243317962065259</v>
+      </c>
+      <c r="F61">
+        <v>1</v>
+      </c>
+      <c r="G61" t="s">
+        <v>66</v>
+      </c>
+      <c r="H61">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -1997,11 +2369,17 @@
       <c r="E62">
         <v>1.284276084573828e-13</v>
       </c>
-      <c r="F62" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6">
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62" t="s">
+        <v>67</v>
+      </c>
+      <c r="H62">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -2017,11 +2395,17 @@
       <c r="E63">
         <v>0.1943086712448765</v>
       </c>
-      <c r="F63" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6">
+      <c r="F63">
+        <v>23</v>
+      </c>
+      <c r="G63" t="s">
+        <v>68</v>
+      </c>
+      <c r="H63">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -2037,11 +2421,17 @@
       <c r="E64">
         <v>0.00590977590001343</v>
       </c>
-      <c r="F64" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6">
+      <c r="F64">
+        <v>2</v>
+      </c>
+      <c r="G64" t="s">
+        <v>69</v>
+      </c>
+      <c r="H64">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -2057,11 +2447,17 @@
       <c r="E65">
         <v>1.284276084573828e-13</v>
       </c>
-      <c r="F65" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6">
+      <c r="F65">
+        <v>0</v>
+      </c>
+      <c r="G65" t="s">
+        <v>70</v>
+      </c>
+      <c r="H65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -2075,13 +2471,19 @@
         <v>0.1219512195121951</v>
       </c>
       <c r="E66">
-        <v>0.09477411901755346</v>
-      </c>
-      <c r="F66" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6">
+        <v>0.09477411901755348</v>
+      </c>
+      <c r="F66">
+        <v>7</v>
+      </c>
+      <c r="G66" t="s">
+        <v>71</v>
+      </c>
+      <c r="H66">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -2097,11 +2499,17 @@
       <c r="E67">
         <v>0.04119328373551704</v>
       </c>
-      <c r="F67" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6">
+      <c r="F67">
+        <v>4</v>
+      </c>
+      <c r="G67" t="s">
+        <v>72</v>
+      </c>
+      <c r="H67">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -2117,11 +2525,17 @@
       <c r="E68">
         <v>0.03270316866431497</v>
       </c>
-      <c r="F68" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6">
+      <c r="F68">
+        <v>3</v>
+      </c>
+      <c r="G68" t="s">
+        <v>73</v>
+      </c>
+      <c r="H68">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -2137,11 +2551,17 @@
       <c r="E69">
         <v>1.412703693031211e-12</v>
       </c>
-      <c r="F69" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6">
+      <c r="F69">
+        <v>1</v>
+      </c>
+      <c r="G69" t="s">
+        <v>74</v>
+      </c>
+      <c r="H69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -2155,13 +2575,19 @@
         <v>0.02439024390243903</v>
       </c>
       <c r="E70">
-        <v>0.02196410317560709</v>
-      </c>
-      <c r="F70" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6">
+        <v>0.0219641031756071</v>
+      </c>
+      <c r="F70">
+        <v>1</v>
+      </c>
+      <c r="G70" t="s">
+        <v>75</v>
+      </c>
+      <c r="H70">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -2177,11 +2603,17 @@
       <c r="E71">
         <v>1.284276084573828e-13</v>
       </c>
-      <c r="F71" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6">
+      <c r="F71">
+        <v>0</v>
+      </c>
+      <c r="G71" t="s">
+        <v>76</v>
+      </c>
+      <c r="H71">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -2197,11 +2629,17 @@
       <c r="E72">
         <v>1.284276084573828e-13</v>
       </c>
-      <c r="F72" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6">
+      <c r="F72">
+        <v>0</v>
+      </c>
+      <c r="G72" t="s">
+        <v>77</v>
+      </c>
+      <c r="H72">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -2217,11 +2655,17 @@
       <c r="E73">
         <v>0.02629287024025862</v>
       </c>
-      <c r="F73" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6">
+      <c r="F73">
+        <v>4</v>
+      </c>
+      <c r="G73" t="s">
+        <v>78</v>
+      </c>
+      <c r="H73">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -2237,11 +2681,17 @@
       <c r="E74">
         <v>0.04336702123433446</v>
       </c>
-      <c r="F74" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6">
+      <c r="F74">
+        <v>4</v>
+      </c>
+      <c r="G74" t="s">
+        <v>79</v>
+      </c>
+      <c r="H74">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -2257,11 +2707,17 @@
       <c r="E75">
         <v>0.01306851912668166</v>
       </c>
-      <c r="F75" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6">
+      <c r="F75">
+        <v>2</v>
+      </c>
+      <c r="G75" t="s">
+        <v>80</v>
+      </c>
+      <c r="H75">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1">
         <v>74</v>
       </c>
@@ -2277,11 +2733,17 @@
       <c r="E76">
         <v>1.284276084573828e-13</v>
       </c>
-      <c r="F76" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6">
+      <c r="F76">
+        <v>0</v>
+      </c>
+      <c r="G76" t="s">
+        <v>81</v>
+      </c>
+      <c r="H76">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1">
         <v>75</v>
       </c>
@@ -2289,19 +2751,25 @@
         <v>0</v>
       </c>
       <c r="C77">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D77">
-        <v>0</v>
+        <v>0.008130081300813009</v>
       </c>
       <c r="E77">
-        <v>1.284276084573828e-13</v>
-      </c>
-      <c r="F77" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6">
+        <v>0.007242707713995649</v>
+      </c>
+      <c r="F77">
+        <v>1</v>
+      </c>
+      <c r="G77" t="s">
+        <v>82</v>
+      </c>
+      <c r="H77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1">
         <v>76</v>
       </c>
@@ -2317,11 +2785,17 @@
       <c r="E78">
         <v>0.003928220887326915</v>
       </c>
-      <c r="F78" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6">
+      <c r="F78">
+        <v>1</v>
+      </c>
+      <c r="G78" t="s">
+        <v>83</v>
+      </c>
+      <c r="H78">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1">
         <v>77</v>
       </c>
@@ -2337,11 +2811,17 @@
       <c r="E79">
         <v>1.284276084573828e-13</v>
       </c>
-      <c r="F79" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6">
+      <c r="F79">
+        <v>0</v>
+      </c>
+      <c r="G79" t="s">
+        <v>84</v>
+      </c>
+      <c r="H79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1">
         <v>78</v>
       </c>
@@ -2357,11 +2837,17 @@
       <c r="E80">
         <v>1.284276084573828e-13</v>
       </c>
-      <c r="F80" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6">
+      <c r="F80">
+        <v>0</v>
+      </c>
+      <c r="G80" t="s">
+        <v>85</v>
+      </c>
+      <c r="H80">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1">
         <v>79</v>
       </c>
@@ -2377,11 +2863,17 @@
       <c r="E81">
         <v>0.01284832084742205</v>
       </c>
-      <c r="F81" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6">
+      <c r="F81">
+        <v>1</v>
+      </c>
+      <c r="G81" t="s">
+        <v>86</v>
+      </c>
+      <c r="H81">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1">
         <v>80</v>
       </c>
@@ -2397,11 +2889,17 @@
       <c r="E82">
         <v>1.284276084573828e-13</v>
       </c>
-      <c r="F82" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6">
+      <c r="F82">
+        <v>0</v>
+      </c>
+      <c r="G82" t="s">
+        <v>87</v>
+      </c>
+      <c r="H82">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1">
         <v>81</v>
       </c>
@@ -2417,11 +2915,17 @@
       <c r="E83">
         <v>0.04372609763499308</v>
       </c>
-      <c r="F83" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6">
+      <c r="F83">
+        <v>5</v>
+      </c>
+      <c r="G83" t="s">
+        <v>88</v>
+      </c>
+      <c r="H83">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1">
         <v>82</v>
       </c>
@@ -2437,11 +2941,17 @@
       <c r="E84">
         <v>0.003955605268944062</v>
       </c>
-      <c r="F84" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6">
+      <c r="F84">
+        <v>2</v>
+      </c>
+      <c r="G84" t="s">
+        <v>89</v>
+      </c>
+      <c r="H84">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1">
         <v>83</v>
       </c>
@@ -2449,19 +2959,25 @@
         <v>0</v>
       </c>
       <c r="C85">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D85">
-        <v>0.02439024390243903</v>
+        <v>0.04065040650406505</v>
       </c>
       <c r="E85">
         <v>1.284276084573828e-13</v>
       </c>
-      <c r="F85" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6">
+      <c r="F85">
+        <v>0</v>
+      </c>
+      <c r="G85" t="s">
+        <v>90</v>
+      </c>
+      <c r="H85">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1">
         <v>84</v>
       </c>
@@ -2477,11 +2993,17 @@
       <c r="E86">
         <v>1.284276084573828e-13</v>
       </c>
-      <c r="F86" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6">
+      <c r="F86">
+        <v>0</v>
+      </c>
+      <c r="G86" t="s">
+        <v>91</v>
+      </c>
+      <c r="H86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1">
         <v>85</v>
       </c>
@@ -2497,11 +3019,17 @@
       <c r="E87">
         <v>1.284276084573828e-13</v>
       </c>
-      <c r="F87" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6">
+      <c r="F87">
+        <v>0</v>
+      </c>
+      <c r="G87" t="s">
+        <v>92</v>
+      </c>
+      <c r="H87">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1">
         <v>86</v>
       </c>
@@ -2517,11 +3045,17 @@
       <c r="E88">
         <v>1.3150987106036e-10</v>
       </c>
-      <c r="F88" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6">
+      <c r="F88">
+        <v>1</v>
+      </c>
+      <c r="G88" t="s">
+        <v>93</v>
+      </c>
+      <c r="H88">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1">
         <v>87</v>
       </c>
@@ -2537,11 +3071,17 @@
       <c r="E89">
         <v>1.284276084573828e-13</v>
       </c>
-      <c r="F89" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6">
+      <c r="F89">
+        <v>0</v>
+      </c>
+      <c r="G89" t="s">
+        <v>94</v>
+      </c>
+      <c r="H89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1">
         <v>88</v>
       </c>
@@ -2557,11 +3097,17 @@
       <c r="E90">
         <v>0.02284117366211802</v>
       </c>
-      <c r="F90" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6">
+      <c r="F90">
+        <v>3</v>
+      </c>
+      <c r="G90" t="s">
+        <v>95</v>
+      </c>
+      <c r="H90">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1">
         <v>89</v>
       </c>
@@ -2577,11 +3123,17 @@
       <c r="E91">
         <v>1.284276084573828e-13</v>
       </c>
-      <c r="F91" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6">
+      <c r="F91">
+        <v>0</v>
+      </c>
+      <c r="G91" t="s">
+        <v>96</v>
+      </c>
+      <c r="H91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1">
         <v>90</v>
       </c>
@@ -2597,11 +3149,17 @@
       <c r="E92">
         <v>0.1640700271980043</v>
       </c>
-      <c r="F92" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6">
+      <c r="F92">
+        <v>11</v>
+      </c>
+      <c r="G92" t="s">
+        <v>97</v>
+      </c>
+      <c r="H92">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1">
         <v>91</v>
       </c>
@@ -2617,11 +3175,17 @@
       <c r="E93">
         <v>1.284276084573828e-13</v>
       </c>
-      <c r="F93" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6">
+      <c r="F93">
+        <v>0</v>
+      </c>
+      <c r="G93" t="s">
+        <v>98</v>
+      </c>
+      <c r="H93">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1">
         <v>92</v>
       </c>
@@ -2637,11 +3201,17 @@
       <c r="E94">
         <v>1.284276084573828e-13</v>
       </c>
-      <c r="F94" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6">
+      <c r="F94">
+        <v>0</v>
+      </c>
+      <c r="G94" t="s">
+        <v>99</v>
+      </c>
+      <c r="H94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1">
         <v>93</v>
       </c>
@@ -2657,11 +3227,17 @@
       <c r="E95">
         <v>1.284276084573828e-13</v>
       </c>
-      <c r="F95" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6">
+      <c r="F95">
+        <v>0</v>
+      </c>
+      <c r="G95" t="s">
+        <v>100</v>
+      </c>
+      <c r="H95">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1">
         <v>94</v>
       </c>
@@ -2675,13 +3251,19 @@
         <v>0.0894308943089431</v>
       </c>
       <c r="E96">
-        <v>0.04336702136584433</v>
-      </c>
-      <c r="F96" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6">
+        <v>0.04336702136584432</v>
+      </c>
+      <c r="F96">
+        <v>6</v>
+      </c>
+      <c r="G96" t="s">
+        <v>101</v>
+      </c>
+      <c r="H96">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1">
         <v>95</v>
       </c>
@@ -2697,11 +3279,17 @@
       <c r="E97">
         <v>1.412703693031211e-12</v>
       </c>
-      <c r="F97" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6">
+      <c r="F97">
+        <v>1</v>
+      </c>
+      <c r="G97" t="s">
+        <v>102</v>
+      </c>
+      <c r="H97">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1">
         <v>96</v>
       </c>
@@ -2717,11 +3305,17 @@
       <c r="E98">
         <v>0.1389083473268738</v>
       </c>
-      <c r="F98" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6">
+      <c r="F98">
+        <v>14</v>
+      </c>
+      <c r="G98" t="s">
+        <v>103</v>
+      </c>
+      <c r="H98">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1">
         <v>97</v>
       </c>
@@ -2737,11 +3331,17 @@
       <c r="E99">
         <v>1.284276084573828e-13</v>
       </c>
-      <c r="F99" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6">
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99" t="s">
+        <v>104</v>
+      </c>
+      <c r="H99">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1">
         <v>98</v>
       </c>
@@ -2757,11 +3357,17 @@
       <c r="E100">
         <v>1.284276084573828e-13</v>
       </c>
-      <c r="F100" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6">
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100" t="s">
+        <v>105</v>
+      </c>
+      <c r="H100">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1">
         <v>99</v>
       </c>
@@ -2777,11 +3383,17 @@
       <c r="E101">
         <v>0.007242707713995649</v>
       </c>
-      <c r="F101" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6">
+      <c r="F101">
+        <v>1</v>
+      </c>
+      <c r="G101" t="s">
+        <v>106</v>
+      </c>
+      <c r="H101">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1">
         <v>100</v>
       </c>
@@ -2795,13 +3407,19 @@
         <v>0.1463414634146342</v>
       </c>
       <c r="E102">
-        <v>0.1094806709571929</v>
-      </c>
-      <c r="F102" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6">
+        <v>0.109480670957193</v>
+      </c>
+      <c r="F102">
+        <v>9</v>
+      </c>
+      <c r="G102" t="s">
+        <v>107</v>
+      </c>
+      <c r="H102">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1">
         <v>101</v>
       </c>
@@ -2817,11 +3435,17 @@
       <c r="E103">
         <v>1.284276084573828e-13</v>
       </c>
-      <c r="F103" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6">
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103" t="s">
+        <v>108</v>
+      </c>
+      <c r="H103">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1">
         <v>102</v>
       </c>
@@ -2837,11 +3461,17 @@
       <c r="E104">
         <v>0.001659036034982069</v>
       </c>
-      <c r="F104" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6">
+      <c r="F104">
+        <v>4</v>
+      </c>
+      <c r="G104" t="s">
+        <v>109</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8">
       <c r="A105" s="1">
         <v>103</v>
       </c>
@@ -2855,13 +3485,19 @@
         <v>0.1138211382113821</v>
       </c>
       <c r="E105">
-        <v>0.07247327824352919</v>
-      </c>
-      <c r="F105" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6">
+        <v>0.0724732782435292</v>
+      </c>
+      <c r="F105">
+        <v>4</v>
+      </c>
+      <c r="G105" t="s">
+        <v>110</v>
+      </c>
+      <c r="H105">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8">
       <c r="A106" s="1">
         <v>104</v>
       </c>
@@ -2877,11 +3513,17 @@
       <c r="E106">
         <v>1.284276084573828e-13</v>
       </c>
-      <c r="F106" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6">
+      <c r="F106">
+        <v>0</v>
+      </c>
+      <c r="G106" t="s">
+        <v>111</v>
+      </c>
+      <c r="H106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8">
       <c r="A107" s="1">
         <v>105</v>
       </c>
@@ -2897,11 +3539,17 @@
       <c r="E107">
         <v>0.02444343619687765</v>
       </c>
-      <c r="F107" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6">
+      <c r="F107">
+        <v>4</v>
+      </c>
+      <c r="G107" t="s">
+        <v>112</v>
+      </c>
+      <c r="H107">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8">
       <c r="A108" s="1">
         <v>106</v>
       </c>
@@ -2917,11 +3565,17 @@
       <c r="E108">
         <v>0.0002784451064002471</v>
       </c>
-      <c r="F108" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6">
+      <c r="F108">
+        <v>1</v>
+      </c>
+      <c r="G108" t="s">
+        <v>113</v>
+      </c>
+      <c r="H108">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8">
       <c r="A109" s="1">
         <v>107</v>
       </c>
@@ -2937,11 +3591,17 @@
       <c r="E109">
         <v>0.006469126293400515</v>
       </c>
-      <c r="F109" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6">
+      <c r="F109">
+        <v>1</v>
+      </c>
+      <c r="G109" t="s">
+        <v>114</v>
+      </c>
+      <c r="H109">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8">
       <c r="A110" s="1">
         <v>108</v>
       </c>
@@ -2955,13 +3615,19 @@
         <v>0.2926829268292683</v>
       </c>
       <c r="E110">
-        <v>0.2033701472773884</v>
-      </c>
-      <c r="F110" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6">
+        <v>0.2033701472773885</v>
+      </c>
+      <c r="F110">
+        <v>25</v>
+      </c>
+      <c r="G110" t="s">
+        <v>115</v>
+      </c>
+      <c r="H110">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8">
       <c r="A111" s="1">
         <v>109</v>
       </c>
@@ -2977,11 +3643,17 @@
       <c r="E111">
         <v>0.01207621160418957</v>
       </c>
-      <c r="F111" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6">
+      <c r="F111">
+        <v>2</v>
+      </c>
+      <c r="G111" t="s">
+        <v>116</v>
+      </c>
+      <c r="H111">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8">
       <c r="A112" s="1">
         <v>110</v>
       </c>
@@ -2997,11 +3669,17 @@
       <c r="E112">
         <v>1.284276084573828e-13</v>
       </c>
-      <c r="F112" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="113" spans="1:6">
+      <c r="F112">
+        <v>0</v>
+      </c>
+      <c r="G112" t="s">
+        <v>117</v>
+      </c>
+      <c r="H112">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8">
       <c r="A113" s="1">
         <v>111</v>
       </c>
@@ -3017,11 +3695,17 @@
       <c r="E113">
         <v>0.008242759516057293</v>
       </c>
-      <c r="F113" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="114" spans="1:6">
+      <c r="F113">
+        <v>10</v>
+      </c>
+      <c r="G113" t="s">
+        <v>118</v>
+      </c>
+      <c r="H113">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8">
       <c r="A114" s="1">
         <v>112</v>
       </c>
@@ -3037,11 +3721,17 @@
       <c r="E114">
         <v>1.284276084573828e-13</v>
       </c>
-      <c r="F114" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="115" spans="1:6">
+      <c r="F114">
+        <v>0</v>
+      </c>
+      <c r="G114" t="s">
+        <v>119</v>
+      </c>
+      <c r="H114">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8">
       <c r="A115" s="1">
         <v>113</v>
       </c>
@@ -3057,11 +3747,17 @@
       <c r="E115">
         <v>1.284276084573828e-13</v>
       </c>
-      <c r="F115" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="116" spans="1:6">
+      <c r="F115">
+        <v>0</v>
+      </c>
+      <c r="G115" t="s">
+        <v>120</v>
+      </c>
+      <c r="H115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8">
       <c r="A116" s="1">
         <v>114</v>
       </c>
@@ -3077,11 +3773,17 @@
       <c r="E116">
         <v>1.284276084573828e-13</v>
       </c>
-      <c r="F116" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="117" spans="1:6">
+      <c r="F116">
+        <v>0</v>
+      </c>
+      <c r="G116" t="s">
+        <v>121</v>
+      </c>
+      <c r="H116">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8">
       <c r="A117" s="1">
         <v>115</v>
       </c>
@@ -3095,13 +3797,19 @@
         <v>0.0894308943089431</v>
       </c>
       <c r="E117">
-        <v>0.01326347069326225</v>
-      </c>
-      <c r="F117" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="118" spans="1:6">
+        <v>0.01326347069326226</v>
+      </c>
+      <c r="F117">
+        <v>3</v>
+      </c>
+      <c r="G117" t="s">
+        <v>122</v>
+      </c>
+      <c r="H117">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8">
       <c r="A118" s="1">
         <v>116</v>
       </c>
@@ -3117,11 +3825,17 @@
       <c r="E118">
         <v>1.284276084573828e-13</v>
       </c>
-      <c r="F118" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="119" spans="1:6">
+      <c r="F118">
+        <v>0</v>
+      </c>
+      <c r="G118" t="s">
+        <v>123</v>
+      </c>
+      <c r="H118">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8">
       <c r="A119" s="1">
         <v>117</v>
       </c>
@@ -3137,11 +3851,17 @@
       <c r="E119">
         <v>1.412703693031211e-12</v>
       </c>
-      <c r="F119" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="120" spans="1:6">
+      <c r="F119">
+        <v>1</v>
+      </c>
+      <c r="G119" t="s">
+        <v>124</v>
+      </c>
+      <c r="H119">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8">
       <c r="A120" s="1">
         <v>118</v>
       </c>
@@ -3149,19 +3869,25 @@
         <v>0</v>
       </c>
       <c r="C120">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D120">
-        <v>0.008130081300813009</v>
+        <v>0</v>
       </c>
       <c r="E120">
-        <v>0.007242707713995649</v>
-      </c>
-      <c r="F120" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="121" spans="1:6">
+        <v>1.284276084573828e-13</v>
+      </c>
+      <c r="F120">
+        <v>0</v>
+      </c>
+      <c r="G120" t="s">
+        <v>125</v>
+      </c>
+      <c r="H120">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8">
       <c r="A121" s="1">
         <v>119</v>
       </c>
@@ -3175,13 +3901,19 @@
         <v>0.05691056910569106</v>
       </c>
       <c r="E121">
-        <v>0.02196410317560709</v>
-      </c>
-      <c r="F121" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="122" spans="1:6">
+        <v>0.0219641031756071</v>
+      </c>
+      <c r="F121">
+        <v>1</v>
+      </c>
+      <c r="G121" t="s">
+        <v>126</v>
+      </c>
+      <c r="H121">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8">
       <c r="A122" s="1">
         <v>120</v>
       </c>
@@ -3195,13 +3927,19 @@
         <v>0.0975609756097561</v>
       </c>
       <c r="E122">
-        <v>0.08354577196206246</v>
-      </c>
-      <c r="F122" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="123" spans="1:6">
+        <v>0.08354577196206243</v>
+      </c>
+      <c r="F122">
+        <v>6</v>
+      </c>
+      <c r="G122" t="s">
+        <v>127</v>
+      </c>
+      <c r="H122">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8">
       <c r="A123" s="1">
         <v>121</v>
       </c>
@@ -3217,16 +3955,22 @@
       <c r="E123">
         <v>0.001787995687171243</v>
       </c>
-      <c r="F123" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="124" spans="1:6">
+      <c r="F123">
+        <v>2</v>
+      </c>
+      <c r="G123" t="s">
+        <v>128</v>
+      </c>
+      <c r="H123">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8">
       <c r="A124" s="1">
         <v>122</v>
       </c>
       <c r="B124">
-        <v>0.03299247227728684</v>
+        <v>0.03299247227728685</v>
       </c>
       <c r="C124">
         <v>59</v>
@@ -3235,13 +3979,19 @@
         <v>0.4796747967479675</v>
       </c>
       <c r="E124">
-        <v>0.2824910616271694</v>
-      </c>
-      <c r="F124" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="125" spans="1:6">
+        <v>0.2824910616271695</v>
+      </c>
+      <c r="F124">
+        <v>40</v>
+      </c>
+      <c r="G124" t="s">
+        <v>129</v>
+      </c>
+      <c r="H124">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8">
       <c r="A125" s="1">
         <v>123</v>
       </c>
@@ -3249,16 +3999,22 @@
         <v>0</v>
       </c>
       <c r="C125">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D125">
-        <v>0.04065040650406505</v>
+        <v>0.02439024390243903</v>
       </c>
       <c r="E125">
         <v>1.284276084573828e-13</v>
       </c>
-      <c r="F125" t="s">
-        <v>128</v>
+      <c r="F125">
+        <v>0</v>
+      </c>
+      <c r="G125" t="s">
+        <v>130</v>
+      </c>
+      <c r="H125">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/notebooks/Data/Star_Wars_Episode_I_The_Phantom_Menice/centrality.xlsx
+++ b/notebooks/Data/Star_Wars_Episode_I_The_Phantom_Menice/centrality.xlsx
@@ -262,151 +262,151 @@
     <t>Weazel</t>
   </si>
   <si>
+    <t>Ebenn Q3 Baobab</t>
+  </si>
+  <si>
+    <t>Ratts Tyerell</t>
+  </si>
+  <si>
+    <t>Swamptoe</t>
+  </si>
+  <si>
+    <t>Bok Askol</t>
+  </si>
+  <si>
+    <t>Greedo</t>
+  </si>
+  <si>
+    <t>Po Nudo</t>
+  </si>
+  <si>
+    <t>Sabé</t>
+  </si>
+  <si>
+    <t>Mars Guo</t>
+  </si>
+  <si>
+    <t>R2-A6</t>
+  </si>
+  <si>
+    <t>Yarua</t>
+  </si>
+  <si>
+    <t>Graf Zapalo</t>
+  </si>
+  <si>
+    <t>Ann Gella</t>
+  </si>
+  <si>
+    <t>Teers</t>
+  </si>
+  <si>
+    <t>Wald</t>
+  </si>
+  <si>
+    <t>Elan Mak</t>
+  </si>
+  <si>
+    <t>Shmi Skywalker Lars</t>
+  </si>
+  <si>
+    <t>Hogan Tinmar</t>
+  </si>
+  <si>
+    <t>K1D0</t>
+  </si>
+  <si>
+    <t>R2-R9</t>
+  </si>
+  <si>
+    <t>Bail Antilles</t>
+  </si>
+  <si>
+    <t>Aldar Beedo</t>
+  </si>
+  <si>
+    <t>Lott Dod</t>
+  </si>
+  <si>
+    <t>Tey How</t>
+  </si>
+  <si>
+    <t>1138 (Trade Federation)</t>
+  </si>
+  <si>
+    <t>Sei Taria</t>
+  </si>
+  <si>
+    <t>Adi Gallia</t>
+  </si>
+  <si>
+    <t>Saché</t>
+  </si>
+  <si>
+    <t>Clegg Holdfast</t>
+  </si>
+  <si>
+    <t>Depa Billaba</t>
+  </si>
+  <si>
+    <t>PK-4</t>
+  </si>
+  <si>
+    <t>Rune Haako</t>
+  </si>
+  <si>
+    <t>Ody Mandrell</t>
+  </si>
+  <si>
+    <t>Neva Kee</t>
+  </si>
+  <si>
+    <t>Finis Valorum</t>
+  </si>
+  <si>
+    <t>Antidar Williams</t>
+  </si>
+  <si>
+    <t>Ebe E. Endocott</t>
+  </si>
+  <si>
+    <t>Fodesinbeed Annodue</t>
+  </si>
+  <si>
+    <t>Yarael Poof</t>
+  </si>
+  <si>
+    <t>Perosei</t>
+  </si>
+  <si>
+    <t>Ianad Cisma</t>
+  </si>
+  <si>
+    <t>Ric Olié</t>
+  </si>
+  <si>
+    <t>Odin Nesloor</t>
+  </si>
+  <si>
+    <t>Yané</t>
+  </si>
+  <si>
     <t>Mot-Not Rab</t>
   </si>
   <si>
-    <t>Ratts Tyerell</t>
-  </si>
-  <si>
-    <t>Swamptoe</t>
-  </si>
-  <si>
-    <t>Bok Askol</t>
-  </si>
-  <si>
-    <t>Greedo</t>
-  </si>
-  <si>
-    <t>Po Nudo</t>
-  </si>
-  <si>
-    <t>Sabé</t>
-  </si>
-  <si>
-    <t>Mars Guo</t>
+    <t>Maz Kanata</t>
+  </si>
+  <si>
+    <t>Gardulla Besadii the Elder</t>
+  </si>
+  <si>
+    <t>Boles Roor</t>
+  </si>
+  <si>
+    <t>Darth Sidious</t>
   </si>
   <si>
     <t>Rum Sleg</t>
-  </si>
-  <si>
-    <t>Yarua</t>
-  </si>
-  <si>
-    <t>Graf Zapalo</t>
-  </si>
-  <si>
-    <t>Ann Gella</t>
-  </si>
-  <si>
-    <t>Teers</t>
-  </si>
-  <si>
-    <t>Wald</t>
-  </si>
-  <si>
-    <t>Elan Mak</t>
-  </si>
-  <si>
-    <t>Shmi Skywalker Lars</t>
-  </si>
-  <si>
-    <t>Hogan Tinmar</t>
-  </si>
-  <si>
-    <t>K1D0</t>
-  </si>
-  <si>
-    <t>R2-R9</t>
-  </si>
-  <si>
-    <t>Bail Antilles</t>
-  </si>
-  <si>
-    <t>Aldar Beedo</t>
-  </si>
-  <si>
-    <t>Lott Dod</t>
-  </si>
-  <si>
-    <t>Tey How</t>
-  </si>
-  <si>
-    <t>1138 (Trade Federation)</t>
-  </si>
-  <si>
-    <t>Sei Taria</t>
-  </si>
-  <si>
-    <t>Adi Gallia</t>
-  </si>
-  <si>
-    <t>Saché</t>
-  </si>
-  <si>
-    <t>Clegg Holdfast</t>
-  </si>
-  <si>
-    <t>Depa Billaba</t>
-  </si>
-  <si>
-    <t>PK-4</t>
-  </si>
-  <si>
-    <t>Rune Haako</t>
-  </si>
-  <si>
-    <t>Ody Mandrell</t>
-  </si>
-  <si>
-    <t>Neva Kee</t>
-  </si>
-  <si>
-    <t>Finis Valorum</t>
-  </si>
-  <si>
-    <t>Antidar Williams</t>
-  </si>
-  <si>
-    <t>Ebe E. Endocott</t>
-  </si>
-  <si>
-    <t>Fodesinbeed Annodue</t>
-  </si>
-  <si>
-    <t>Yarael Poof</t>
-  </si>
-  <si>
-    <t>Perosei</t>
-  </si>
-  <si>
-    <t>Ianad Cisma</t>
-  </si>
-  <si>
-    <t>Ric Olié</t>
-  </si>
-  <si>
-    <t>Odin Nesloor</t>
-  </si>
-  <si>
-    <t>Yané</t>
-  </si>
-  <si>
-    <t>Ebenn Q3 Baobab</t>
-  </si>
-  <si>
-    <t>Maz Kanata</t>
-  </si>
-  <si>
-    <t>Gardulla Besadii the Elder</t>
-  </si>
-  <si>
-    <t>Boles Roor</t>
-  </si>
-  <si>
-    <t>Darth Sidious</t>
-  </si>
-  <si>
-    <t>R2-A6</t>
   </si>
 </sst>
 </file>
@@ -833,7 +833,7 @@
         <v>0.04878048780487805</v>
       </c>
       <c r="E3">
-        <v>0.004318535650622627</v>
+        <v>0.004318535650622628</v>
       </c>
       <c r="F3">
         <v>3</v>
@@ -911,7 +911,7 @@
         <v>0.1219512195121951</v>
       </c>
       <c r="E6">
-        <v>0.002984730610197573</v>
+        <v>0.002984730610197574</v>
       </c>
       <c r="F6">
         <v>1</v>
@@ -1015,7 +1015,7 @@
         <v>0.1382113821138211</v>
       </c>
       <c r="E10">
-        <v>0.08066773161898985</v>
+        <v>0.08066773161898984</v>
       </c>
       <c r="F10">
         <v>9</v>
@@ -1223,7 +1223,7 @@
         <v>0.1707317073170732</v>
       </c>
       <c r="E18">
-        <v>0.1082742476035901</v>
+        <v>0.10827424760359</v>
       </c>
       <c r="F18">
         <v>8</v>
@@ -1353,7 +1353,7 @@
         <v>0.7967479674796749</v>
       </c>
       <c r="E23">
-        <v>0.3217690234418082</v>
+        <v>0.3217690234418081</v>
       </c>
       <c r="F23">
         <v>62</v>
@@ -1457,7 +1457,7 @@
         <v>0.2357723577235773</v>
       </c>
       <c r="E27">
-        <v>0.05754444355901206</v>
+        <v>0.05754444355901207</v>
       </c>
       <c r="F27">
         <v>18</v>
@@ -1691,7 +1691,7 @@
         <v>0.4796747967479675</v>
       </c>
       <c r="E36">
-        <v>0.2841119899212122</v>
+        <v>0.2841119899212121</v>
       </c>
       <c r="F36">
         <v>45</v>
@@ -1769,7 +1769,7 @@
         <v>0.06504065040650407</v>
       </c>
       <c r="E39">
-        <v>0.03918421343610793</v>
+        <v>0.03918421343610794</v>
       </c>
       <c r="F39">
         <v>8</v>
@@ -1838,7 +1838,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>0.004800646584853954</v>
+        <v>0.004800646584853955</v>
       </c>
       <c r="C42">
         <v>19</v>
@@ -1899,7 +1899,7 @@
         <v>0.0894308943089431</v>
       </c>
       <c r="E44">
-        <v>0.0004005461788657445</v>
+        <v>0.0004005461788657446</v>
       </c>
       <c r="F44">
         <v>3</v>
@@ -2020,7 +2020,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>0.005591760145848459</v>
+        <v>0.00559176014584846</v>
       </c>
       <c r="C49">
         <v>36</v>
@@ -2081,7 +2081,7 @@
         <v>0.0975609756097561</v>
       </c>
       <c r="E51">
-        <v>0.0667397626797657</v>
+        <v>0.06673976267976568</v>
       </c>
       <c r="F51">
         <v>5</v>
@@ -2211,7 +2211,7 @@
         <v>0.07317073170731708</v>
       </c>
       <c r="E56">
-        <v>0.0136884525923284</v>
+        <v>0.01368845259232841</v>
       </c>
       <c r="F56">
         <v>3</v>
@@ -2341,7 +2341,7 @@
         <v>0.04878048780487805</v>
       </c>
       <c r="E61">
-        <v>0.0008243317962065259</v>
+        <v>0.000824331796206526</v>
       </c>
       <c r="F61">
         <v>1</v>
@@ -2471,7 +2471,7 @@
         <v>0.1219512195121951</v>
       </c>
       <c r="E66">
-        <v>0.09477411901755348</v>
+        <v>0.09477411901755346</v>
       </c>
       <c r="F66">
         <v>7</v>
@@ -2575,7 +2575,7 @@
         <v>0.02439024390243903</v>
       </c>
       <c r="E70">
-        <v>0.0219641031756071</v>
+        <v>0.02196410317560709</v>
       </c>
       <c r="F70">
         <v>1</v>
@@ -2751,16 +2751,16 @@
         <v>0</v>
       </c>
       <c r="C77">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D77">
-        <v>0.008130081300813009</v>
+        <v>0</v>
       </c>
       <c r="E77">
-        <v>0.007242707713995649</v>
+        <v>1.284276084573828e-13</v>
       </c>
       <c r="F77">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G77" t="s">
         <v>82</v>
@@ -2959,10 +2959,10 @@
         <v>0</v>
       </c>
       <c r="C85">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D85">
-        <v>0.04065040650406505</v>
+        <v>0.02439024390243903</v>
       </c>
       <c r="E85">
         <v>1.284276084573828e-13</v>
@@ -2974,7 +2974,7 @@
         <v>90</v>
       </c>
       <c r="H85">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -3251,7 +3251,7 @@
         <v>0.0894308943089431</v>
       </c>
       <c r="E96">
-        <v>0.04336702136584432</v>
+        <v>0.04336702136584433</v>
       </c>
       <c r="F96">
         <v>6</v>
@@ -3407,7 +3407,7 @@
         <v>0.1463414634146342</v>
       </c>
       <c r="E102">
-        <v>0.109480670957193</v>
+        <v>0.1094806709571929</v>
       </c>
       <c r="F102">
         <v>9</v>
@@ -3485,7 +3485,7 @@
         <v>0.1138211382113821</v>
       </c>
       <c r="E105">
-        <v>0.0724732782435292</v>
+        <v>0.07247327824352919</v>
       </c>
       <c r="F105">
         <v>4</v>
@@ -3615,7 +3615,7 @@
         <v>0.2926829268292683</v>
       </c>
       <c r="E110">
-        <v>0.2033701472773885</v>
+        <v>0.2033701472773884</v>
       </c>
       <c r="F110">
         <v>25</v>
@@ -3797,7 +3797,7 @@
         <v>0.0894308943089431</v>
       </c>
       <c r="E117">
-        <v>0.01326347069326226</v>
+        <v>0.01326347069326225</v>
       </c>
       <c r="F117">
         <v>3</v>
@@ -3869,16 +3869,16 @@
         <v>0</v>
       </c>
       <c r="C120">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D120">
-        <v>0</v>
+        <v>0.008130081300813009</v>
       </c>
       <c r="E120">
-        <v>1.284276084573828e-13</v>
+        <v>0.007242707713995649</v>
       </c>
       <c r="F120">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G120" t="s">
         <v>125</v>
@@ -3901,7 +3901,7 @@
         <v>0.05691056910569106</v>
       </c>
       <c r="E121">
-        <v>0.0219641031756071</v>
+        <v>0.02196410317560709</v>
       </c>
       <c r="F121">
         <v>1</v>
@@ -3927,7 +3927,7 @@
         <v>0.0975609756097561</v>
       </c>
       <c r="E122">
-        <v>0.08354577196206243</v>
+        <v>0.08354577196206246</v>
       </c>
       <c r="F122">
         <v>6</v>
@@ -3970,7 +3970,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>0.03299247227728685</v>
+        <v>0.03299247227728684</v>
       </c>
       <c r="C124">
         <v>59</v>
@@ -3979,7 +3979,7 @@
         <v>0.4796747967479675</v>
       </c>
       <c r="E124">
-        <v>0.2824910616271695</v>
+        <v>0.2824910616271694</v>
       </c>
       <c r="F124">
         <v>40</v>
@@ -3999,10 +3999,10 @@
         <v>0</v>
       </c>
       <c r="C125">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D125">
-        <v>0.02439024390243903</v>
+        <v>0.04065040650406505</v>
       </c>
       <c r="E125">
         <v>1.284276084573828e-13</v>
@@ -4014,7 +4014,7 @@
         <v>130</v>
       </c>
       <c r="H125">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
